--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1154">
   <si>
     <t>Псковская область, Опочецкий р-н, г.Опочка, пер.Новый, д.1Б, кв.5</t>
   </si>
@@ -2195,6 +2195,384 @@
     <t>60:12:141901:359</t>
   </si>
   <si>
+    <t>Псковская область, р-н Опочецкий, СП "Болгатовская волость", д. Духново, д. 1, кв. 4</t>
+  </si>
+  <si>
+    <t>60:12:41901:137</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,  СП "Духновская волость", д Духново, д 1, кв 7</t>
+  </si>
+  <si>
+    <t>60:12:41901:128</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 2, 1</t>
+  </si>
+  <si>
+    <t>60:12:41901:105</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 2, 2</t>
+  </si>
+  <si>
+    <t>60:12:41901:106</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 2, 3</t>
+  </si>
+  <si>
+    <t>60:12:41901:107</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 2, 7</t>
+  </si>
+  <si>
+    <t>60:12:41901:103</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 2, 12</t>
+  </si>
+  <si>
+    <t>60:12:41901:104</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 1</t>
+  </si>
+  <si>
+    <t>60:12:41904:90</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 2</t>
+  </si>
+  <si>
+    <t>60:12:41904:91</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, волость Болгатовская, д. Духново, дом 3, кв. 3</t>
+  </si>
+  <si>
+    <t>60:12:41904:92</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 4</t>
+  </si>
+  <si>
+    <t>60:12:41904:89</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 5</t>
+  </si>
+  <si>
+    <t>60:12:41904:88</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 6</t>
+  </si>
+  <si>
+    <t>60:12:41904:96</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, волость Болгатовская, д. Духново, дом 3, кв. 7</t>
+  </si>
+  <si>
+    <t>60:12:41904:93</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 8</t>
+  </si>
+  <si>
+    <t>60:12:41904:94</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, волость Болгатовская, д. Духново, дом 3, кв. 9</t>
+  </si>
+  <si>
+    <t>60:12:41904:95</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, волость Болгатовская, д. Духново, дом 3, кв. 10</t>
+  </si>
+  <si>
+    <t>60:12:41904:97</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 11</t>
+  </si>
+  <si>
+    <t>60:12:41904:98</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 3, 12</t>
+  </si>
+  <si>
+    <t>60:12:41904:99</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Болгатовская волость", д Духново, д 4, кв 1</t>
+  </si>
+  <si>
+    <t>60:12:41901:129</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Болгатовская волость", д Духново, д 4, кв 6</t>
+  </si>
+  <si>
+    <t>60:12:41904:116</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Болгатовская волость", д Духново, д 4, кв 11</t>
+  </si>
+  <si>
+    <t>60:12:41904:117</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 1</t>
+  </si>
+  <si>
+    <t>60:12:41904:114</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 2</t>
+  </si>
+  <si>
+    <t>60:12:41904:113</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 3</t>
+  </si>
+  <si>
+    <t>60:12:41904:112</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 4</t>
+  </si>
+  <si>
+    <t>60:12:41904:111</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 5</t>
+  </si>
+  <si>
+    <t>60:12:41904:109</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 6</t>
+  </si>
+  <si>
+    <t>60:12:41904:108</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 7</t>
+  </si>
+  <si>
+    <t>60:12:41904:107</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 8</t>
+  </si>
+  <si>
+    <t>60:12:41904:104</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 9</t>
+  </si>
+  <si>
+    <t>60:12:41904:115</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 10</t>
+  </si>
+  <si>
+    <t>60:12:41904:110</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, волость Болгатовская, д. Духново, дом 5, кв. 11</t>
+  </si>
+  <si>
+    <t>60:12:41904:106</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 12</t>
+  </si>
+  <si>
+    <t>60:12:41904:105</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 13</t>
+  </si>
+  <si>
+    <t>60:12:41904:103</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 14</t>
+  </si>
+  <si>
+    <t>60:12:41904:102</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 15</t>
+  </si>
+  <si>
+    <t>60:12:41904:101</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 5, 16</t>
+  </si>
+  <si>
+    <t>60:12:41904:100</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 1</t>
+  </si>
+  <si>
+    <t>60:12:41901:123</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Болгатовская волость", д Духново, д 6, кв 2</t>
+  </si>
+  <si>
+    <t>60:12:41901:122</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 3</t>
+  </si>
+  <si>
+    <t>60:12:41901:121</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 4</t>
+  </si>
+  <si>
+    <t>60:12:41901:120</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 5</t>
+  </si>
+  <si>
+    <t>60:12:41901:115</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 6</t>
+  </si>
+  <si>
+    <t>60:12:41901:114</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 7</t>
+  </si>
+  <si>
+    <t>60:12:41901:113</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 8</t>
+  </si>
+  <si>
+    <t>60:12:41901:112</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, Болгатовская волость, д. Духново, дом 6, кв. 9</t>
+  </si>
+  <si>
+    <t>60:12:41901:119</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 10</t>
+  </si>
+  <si>
+    <t>60:12:41901:118</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 11</t>
+  </si>
+  <si>
+    <t>60:12:41901:117</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Болгатовская волость", д Духново, д 6, кв 12</t>
+  </si>
+  <si>
+    <t>60:12:41901:116</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 13</t>
+  </si>
+  <si>
+    <t>60:12:41901:111</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 14</t>
+  </si>
+  <si>
+    <t>60:12:41901:110</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 15</t>
+  </si>
+  <si>
+    <t>60:12:41901:109</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Духново, д. 6, 16</t>
+  </si>
+  <si>
+    <t>60:12:41901:108</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 1</t>
+  </si>
+  <si>
+    <t>60:12:21401:103</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 3</t>
+  </si>
+  <si>
+    <t>60:12:21401:105</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 4</t>
+  </si>
+  <si>
+    <t>60:12:21401:107</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 5</t>
+  </si>
+  <si>
+    <t>60:12:21401:111</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 6</t>
+  </si>
+  <si>
+    <t>60:12:21401:108</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 7</t>
+  </si>
+  <si>
+    <t>60:12:21401:104</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,  СП "Болгатовская волость", д Крулихино, д 13, кв 9</t>
+  </si>
+  <si>
+    <t>60:12:21401:106</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 10</t>
+  </si>
+  <si>
+    <t>60:12:21401:109</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, д Крулихино, д. 13, 11</t>
+  </si>
+  <si>
+    <t>60:12:21401:110</t>
+  </si>
+  <si>
     <t>Псковская область, Опочецкий р-н, Глубоковская волость, д.Норкино, ул.Школьная, д.6, кв.1</t>
   </si>
   <si>
@@ -2691,6 +3069,414 @@
   </si>
   <si>
     <t>60:12:132401:375</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 1</t>
+  </si>
+  <si>
+    <t>60:12:104101:80</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,СП "Варыгинская волость", п Приозерный, д 1, кв 2</t>
+  </si>
+  <si>
+    <t>60:12:104101:81</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,  СП "Матюшкинская волость", п. Приозерный, д. 1, кв. 3</t>
+  </si>
+  <si>
+    <t>60:12:104101:82</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 4</t>
+  </si>
+  <si>
+    <t>60:12:104101:86</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 5</t>
+  </si>
+  <si>
+    <t>60:12:104101:87</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 6</t>
+  </si>
+  <si>
+    <t>60:12:104101:88</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 8</t>
+  </si>
+  <si>
+    <t>60:12:104101:84</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 10</t>
+  </si>
+  <si>
+    <t>60:12:104101:89</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 11</t>
+  </si>
+  <si>
+    <t>60:12:104101:90</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 1, 12</t>
+  </si>
+  <si>
+    <t>60:12:104101:91</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 2, 1</t>
+  </si>
+  <si>
+    <t>60:12:104101:111</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 2, кв 2</t>
+  </si>
+  <si>
+    <t>60:12:104101:112</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 2, 3</t>
+  </si>
+  <si>
+    <t>60:12:104101:113</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 2, кв 5</t>
+  </si>
+  <si>
+    <t>60:12:104101:119</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.2, кв.6</t>
+  </si>
+  <si>
+    <t>60:12:104101:131</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.2, кв.8</t>
+  </si>
+  <si>
+    <t>60:12:104101:129</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 2, 9</t>
+  </si>
+  <si>
+    <t>60:12:104101:115</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.2, кв.11</t>
+  </si>
+  <si>
+    <t>60:12:104101:130</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 2, кв 12</t>
+  </si>
+  <si>
+    <t>60:12:104101:118</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.2, кв.13</t>
+  </si>
+  <si>
+    <t>60:12:104101:133</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 2, 16</t>
+  </si>
+  <si>
+    <t>60:12:104101:126</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 4, кв 2</t>
+  </si>
+  <si>
+    <t>60:12:104101:136</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 4, кв 3</t>
+  </si>
+  <si>
+    <t>60:12:104101:137</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 4, 4</t>
+  </si>
+  <si>
+    <t>60:12:104101:138</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 4, кв 5</t>
+  </si>
+  <si>
+    <t>60:12:104101:143</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.4, кв.6</t>
+  </si>
+  <si>
+    <t>60:12:104101:151</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,  СП "Варыгинская волость", п Приозерный, д 4, кв 7</t>
+  </si>
+  <si>
+    <t>60:12:104101:145</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 4, кв 9</t>
+  </si>
+  <si>
+    <t>60:12:104101:139</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Варыгинская волость", п Приозерный, д. 4, кв. 10</t>
+  </si>
+  <si>
+    <t>60:12:104101:140</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Варыгинская волость", п Приозерный, д 4, кв 11</t>
+  </si>
+  <si>
+    <t>60:12:104101:141</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 4, кв 12</t>
+  </si>
+  <si>
+    <t>60:12:104101:142</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.4, кв.13</t>
+  </si>
+  <si>
+    <t>60:12:104101:152</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6, 1</t>
+  </si>
+  <si>
+    <t>60:12:104101:166</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6, 2</t>
+  </si>
+  <si>
+    <t>60:12:104101:165</t>
+  </si>
+  <si>
+    <t>Псковская обл, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 6, кв 4</t>
+  </si>
+  <si>
+    <t>60:12:104101:169</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6, 7</t>
+  </si>
+  <si>
+    <t>60:12:104101:176</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6, 9</t>
+  </si>
+  <si>
+    <t>60:12:104101:170</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6, 12</t>
+  </si>
+  <si>
+    <t>60:12:104101:173</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6, 13</t>
+  </si>
+  <si>
+    <t>60:12:104101:178</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, волость Матюшкинская, п. Приозерный, дом 6а, кв. 1</t>
+  </si>
+  <si>
+    <t>60:12:104101:186</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6А, 4</t>
+  </si>
+  <si>
+    <t>60:12:104101:189</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6А, 6</t>
+  </si>
+  <si>
+    <t>60:12:104101:191</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 6а, кв 8</t>
+  </si>
+  <si>
+    <t>60:12:104101:193</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д. 6А, кв. 10</t>
+  </si>
+  <si>
+    <t>60:12:104101:195</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д.6А, пом.11</t>
+  </si>
+  <si>
+    <t>60:12:104101:196</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,  СП "Варыгинская волость", п Приозерный, д. 6А, кв.12</t>
+  </si>
+  <si>
+    <t>60:12:104101:197</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6А, 14</t>
+  </si>
+  <si>
+    <t>60:12:104101:183</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 6А, 16</t>
+  </si>
+  <si>
+    <t>60:12:104101:185</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 8, 3</t>
+  </si>
+  <si>
+    <t>60:12:104101:218</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п Приозерный, д 8, кв 6</t>
+  </si>
+  <si>
+    <t>60:12:104101:212</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д. 8, кв. 7</t>
+  </si>
+  <si>
+    <t>60:12:104101:236</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий, СП "Матюшкинская волость", п. Приозерный, д. 8, кв. 8</t>
+  </si>
+  <si>
+    <t>60:12:104101:235</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 8, 9</t>
+  </si>
+  <si>
+    <t>60:12:104101:214</t>
+  </si>
+  <si>
+    <t>обл. Псковская, р-н Опочецкий, п. Приозерный, дом 8, кв. 10</t>
+  </si>
+  <si>
+    <t>60:12:104101:210</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 8, 12</t>
+  </si>
+  <si>
+    <t>60:12:104101:202</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 8, 13</t>
+  </si>
+  <si>
+    <t>60:12:104101:211</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 8, 14</t>
+  </si>
+  <si>
+    <t>60:12:104101:205</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 8, 18</t>
+  </si>
+  <si>
+    <t>60:12:104101:222</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 1</t>
+  </si>
+  <si>
+    <t>60:12:104101:93</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 5</t>
+  </si>
+  <si>
+    <t>60:12:104101:94</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 7</t>
+  </si>
+  <si>
+    <t>60:12:104101:98</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 8</t>
+  </si>
+  <si>
+    <t>60:12:104101:92</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 9</t>
+  </si>
+  <si>
+    <t>60:12:104101:97</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 12</t>
+  </si>
+  <si>
+    <t>60:12:104101:108</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 13</t>
+  </si>
+  <si>
+    <t>60:12:104101:100</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 15</t>
+  </si>
+  <si>
+    <t>60:12:104101:102</t>
+  </si>
+  <si>
+    <t>Псковская область, р-н Опочецкий,  СП "Матюшкинская волость", д Приозерный, д 10, кв 16</t>
+  </si>
+  <si>
+    <t>60:12:104101:232</t>
+  </si>
+  <si>
+    <t>Опочецкий р-н, п Приозерный, д. 10, 18</t>
+  </si>
+  <si>
+    <t>60:12:104101:110</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3815,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5773,836 +6559,1884 @@
         <v>683</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
-      <c r="A368" t="s">
-        <v>684</v>
-      </c>
-      <c r="B368" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" t="s">
-        <v>686</v>
-      </c>
-      <c r="B369" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" t="s">
-        <v>688</v>
-      </c>
-      <c r="B370" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
-        <v>690</v>
-      </c>
-      <c r="B371" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" t="s">
-        <v>692</v>
-      </c>
-      <c r="B372" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>694</v>
-      </c>
-      <c r="B373" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
-        <v>696</v>
-      </c>
-      <c r="B374" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
-        <v>698</v>
-      </c>
-      <c r="B375" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" t="s">
-        <v>700</v>
-      </c>
-      <c r="B376" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
-        <v>702</v>
-      </c>
-      <c r="B377" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" t="s">
-        <v>704</v>
-      </c>
-      <c r="B379" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
-        <v>706</v>
-      </c>
-      <c r="B380" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
-        <v>708</v>
-      </c>
-      <c r="B381" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
-        <v>710</v>
-      </c>
-      <c r="B382" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" t="s">
-        <v>712</v>
-      </c>
-      <c r="B383" t="s">
-        <v>713</v>
-      </c>
-    </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="B384" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="B385" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="B386" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="B387" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="B388" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="B389" t="s">
-        <v>725</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>696</v>
+      </c>
+      <c r="B390" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>698</v>
+      </c>
+      <c r="B391" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>700</v>
+      </c>
+      <c r="B392" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>702</v>
+      </c>
+      <c r="B393" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>704</v>
+      </c>
+      <c r="B395" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>706</v>
+      </c>
+      <c r="B396" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>708</v>
+      </c>
+      <c r="B397" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>710</v>
+      </c>
+      <c r="B398" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>712</v>
+      </c>
+      <c r="B399" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B400" t="s">
-        <v>727</v>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>716</v>
+      </c>
+      <c r="B401" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>718</v>
+      </c>
+      <c r="B402" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>720</v>
+      </c>
+      <c r="B403" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B404" t="s">
-        <v>729</v>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>724</v>
+      </c>
+      <c r="B405" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B409" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410" t="s">
-        <v>732</v>
-      </c>
-      <c r="B410" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" t="s">
-        <v>734</v>
-      </c>
-      <c r="B411" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B412" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" t="s">
-        <v>738</v>
-      </c>
-      <c r="B413" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" t="s">
-        <v>740</v>
-      </c>
-      <c r="B414" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" t="s">
-        <v>742</v>
-      </c>
-      <c r="B415" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" t="s">
-        <v>744</v>
-      </c>
-      <c r="B416" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>746</v>
-      </c>
-      <c r="B417" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="B418" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="B419" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="B420" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2">
-      <c r="A421" t="s">
-        <v>754</v>
-      </c>
-      <c r="B421" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
-      <c r="A422" t="s">
-        <v>756</v>
-      </c>
-      <c r="B422" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>758</v>
-      </c>
-      <c r="B423" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="B424" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>762</v>
-      </c>
-      <c r="B425" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>764</v>
-      </c>
-      <c r="B426" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
-      <c r="A427" t="s">
-        <v>766</v>
-      </c>
-      <c r="B427" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>768</v>
-      </c>
-      <c r="B428" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="B429" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="B430" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="B431" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="B432" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="B433" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="B434" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="B435" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="B436" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B437" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B438" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="B439" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="B440" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="B441" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="B442" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
-      <c r="A443" t="s">
-        <v>798</v>
-      </c>
-      <c r="B443" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" t="s">
-        <v>800</v>
-      </c>
-      <c r="B444" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" t="s">
-        <v>802</v>
-      </c>
-      <c r="B445" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" t="s">
-        <v>804</v>
-      </c>
-      <c r="B446" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="B447" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" t="s">
-        <v>808</v>
-      </c>
-      <c r="B448" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" t="s">
-        <v>810</v>
-      </c>
-      <c r="B449" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" t="s">
-        <v>812</v>
-      </c>
-      <c r="B450" t="s">
-        <v>813</v>
+        <v>767</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>814</v>
+        <v>768</v>
       </c>
       <c r="B452" t="s">
-        <v>815</v>
+        <v>769</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
       <c r="B453" t="s">
-        <v>817</v>
+        <v>771</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>818</v>
+        <v>772</v>
       </c>
       <c r="B454" t="s">
-        <v>819</v>
+        <v>773</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>820</v>
+        <v>774</v>
       </c>
       <c r="B455" t="s">
-        <v>821</v>
+        <v>775</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>822</v>
+        <v>776</v>
       </c>
       <c r="B456" t="s">
-        <v>823</v>
+        <v>777</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="B457" t="s">
-        <v>825</v>
+        <v>779</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>826</v>
+        <v>780</v>
       </c>
       <c r="B458" t="s">
-        <v>827</v>
+        <v>781</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>828</v>
+        <v>782</v>
       </c>
       <c r="B459" t="s">
-        <v>829</v>
+        <v>783</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>830</v>
+        <v>784</v>
       </c>
       <c r="B460" t="s">
-        <v>831</v>
+        <v>785</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>832</v>
+        <v>786</v>
       </c>
       <c r="B461" t="s">
-        <v>833</v>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>788</v>
+      </c>
+      <c r="B462" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>834</v>
+        <v>790</v>
       </c>
       <c r="B463" t="s">
-        <v>835</v>
+        <v>791</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>836</v>
+        <v>792</v>
       </c>
       <c r="B464" t="s">
-        <v>837</v>
+        <v>793</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>838</v>
+        <v>794</v>
       </c>
       <c r="B465" t="s">
-        <v>839</v>
+        <v>795</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>840</v>
+        <v>796</v>
       </c>
       <c r="B466" t="s">
-        <v>841</v>
+        <v>797</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>842</v>
+        <v>798</v>
       </c>
       <c r="B467" t="s">
-        <v>843</v>
+        <v>799</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>844</v>
+        <v>800</v>
       </c>
       <c r="B468" t="s">
-        <v>845</v>
+        <v>801</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>846</v>
+        <v>802</v>
       </c>
       <c r="B469" t="s">
-        <v>847</v>
+        <v>803</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>848</v>
+        <v>804</v>
       </c>
       <c r="B470" t="s">
-        <v>849</v>
+        <v>805</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>850</v>
+        <v>806</v>
       </c>
       <c r="B471" t="s">
-        <v>851</v>
+        <v>807</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>852</v>
+        <v>808</v>
       </c>
       <c r="B472" t="s">
-        <v>853</v>
+        <v>809</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>854</v>
+        <v>810</v>
       </c>
       <c r="B473" t="s">
-        <v>855</v>
+        <v>811</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>856</v>
+        <v>812</v>
       </c>
       <c r="B474" t="s">
-        <v>857</v>
+        <v>813</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>858</v>
+        <v>814</v>
       </c>
       <c r="B475" t="s">
-        <v>859</v>
+        <v>815</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>860</v>
+        <v>816</v>
       </c>
       <c r="B476" t="s">
-        <v>861</v>
+        <v>817</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>862</v>
+        <v>818</v>
       </c>
       <c r="B477" t="s">
-        <v>863</v>
+        <v>819</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>864</v>
+        <v>820</v>
       </c>
       <c r="B478" t="s">
-        <v>865</v>
+        <v>821</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>866</v>
+        <v>822</v>
       </c>
       <c r="B479" t="s">
-        <v>867</v>
+        <v>823</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>868</v>
+        <v>824</v>
       </c>
       <c r="B480" t="s">
-        <v>869</v>
+        <v>825</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>870</v>
+        <v>826</v>
       </c>
       <c r="B481" t="s">
-        <v>871</v>
+        <v>827</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>872</v>
+        <v>828</v>
       </c>
       <c r="B482" t="s">
-        <v>873</v>
+        <v>829</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>874</v>
+        <v>830</v>
       </c>
       <c r="B483" t="s">
-        <v>875</v>
+        <v>831</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="B484" t="s">
-        <v>877</v>
+        <v>833</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>878</v>
+        <v>834</v>
       </c>
       <c r="B485" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" t="s">
-        <v>880</v>
-      </c>
-      <c r="B486" t="s">
-        <v>881</v>
+        <v>835</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="B487" t="s">
-        <v>883</v>
+        <v>837</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>884</v>
+        <v>838</v>
       </c>
       <c r="B488" t="s">
-        <v>885</v>
+        <v>839</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>886</v>
+        <v>840</v>
       </c>
       <c r="B489" t="s">
-        <v>887</v>
+        <v>841</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>888</v>
+        <v>842</v>
       </c>
       <c r="B490" t="s">
-        <v>889</v>
+        <v>843</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
+        <v>844</v>
+      </c>
+      <c r="B491" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>846</v>
+      </c>
+      <c r="B493" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>848</v>
+      </c>
+      <c r="B494" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>850</v>
+      </c>
+      <c r="B495" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>852</v>
+      </c>
+      <c r="B507" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>854</v>
+      </c>
+      <c r="B511" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>856</v>
+      </c>
+      <c r="B516" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>858</v>
+      </c>
+      <c r="B517" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>860</v>
+      </c>
+      <c r="B518" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>862</v>
+      </c>
+      <c r="B519" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>864</v>
+      </c>
+      <c r="B520" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>866</v>
+      </c>
+      <c r="B521" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" t="s">
+        <v>868</v>
+      </c>
+      <c r="B522" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" t="s">
+        <v>870</v>
+      </c>
+      <c r="B523" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" t="s">
+        <v>872</v>
+      </c>
+      <c r="B524" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" t="s">
+        <v>874</v>
+      </c>
+      <c r="B525" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" t="s">
+        <v>876</v>
+      </c>
+      <c r="B526" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" t="s">
+        <v>878</v>
+      </c>
+      <c r="B527" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" t="s">
+        <v>880</v>
+      </c>
+      <c r="B528" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>882</v>
+      </c>
+      <c r="B529" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" t="s">
+        <v>884</v>
+      </c>
+      <c r="B530" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" t="s">
+        <v>886</v>
+      </c>
+      <c r="B531" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" t="s">
+        <v>888</v>
+      </c>
+      <c r="B532" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" t="s">
         <v>890</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B533" t="s">
         <v>891</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" t="s">
+        <v>892</v>
+      </c>
+      <c r="B534" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" t="s">
+        <v>894</v>
+      </c>
+      <c r="B535" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" t="s">
+        <v>896</v>
+      </c>
+      <c r="B536" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" t="s">
+        <v>898</v>
+      </c>
+      <c r="B537" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" t="s">
+        <v>900</v>
+      </c>
+      <c r="B538" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>902</v>
+      </c>
+      <c r="B539" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
+        <v>904</v>
+      </c>
+      <c r="B540" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>906</v>
+      </c>
+      <c r="B541" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>908</v>
+      </c>
+      <c r="B542" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>910</v>
+      </c>
+      <c r="B543" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>912</v>
+      </c>
+      <c r="B544" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>914</v>
+      </c>
+      <c r="B545" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>916</v>
+      </c>
+      <c r="B546" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>918</v>
+      </c>
+      <c r="B547" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>920</v>
+      </c>
+      <c r="B548" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>922</v>
+      </c>
+      <c r="B549" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>924</v>
+      </c>
+      <c r="B550" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>926</v>
+      </c>
+      <c r="B551" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>928</v>
+      </c>
+      <c r="B552" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>930</v>
+      </c>
+      <c r="B553" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>932</v>
+      </c>
+      <c r="B554" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>934</v>
+      </c>
+      <c r="B555" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>936</v>
+      </c>
+      <c r="B556" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>938</v>
+      </c>
+      <c r="B557" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>940</v>
+      </c>
+      <c r="B559" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>942</v>
+      </c>
+      <c r="B560" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>944</v>
+      </c>
+      <c r="B561" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>946</v>
+      </c>
+      <c r="B562" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>948</v>
+      </c>
+      <c r="B563" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>950</v>
+      </c>
+      <c r="B564" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>952</v>
+      </c>
+      <c r="B565" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>954</v>
+      </c>
+      <c r="B566" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>956</v>
+      </c>
+      <c r="B567" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>958</v>
+      </c>
+      <c r="B568" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>960</v>
+      </c>
+      <c r="B570" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>962</v>
+      </c>
+      <c r="B571" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>964</v>
+      </c>
+      <c r="B572" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>966</v>
+      </c>
+      <c r="B573" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>968</v>
+      </c>
+      <c r="B574" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>970</v>
+      </c>
+      <c r="B575" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>972</v>
+      </c>
+      <c r="B576" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>974</v>
+      </c>
+      <c r="B577" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>976</v>
+      </c>
+      <c r="B578" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>978</v>
+      </c>
+      <c r="B579" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>980</v>
+      </c>
+      <c r="B580" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>982</v>
+      </c>
+      <c r="B581" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>984</v>
+      </c>
+      <c r="B582" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>986</v>
+      </c>
+      <c r="B583" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>988</v>
+      </c>
+      <c r="B584" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>990</v>
+      </c>
+      <c r="B585" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>992</v>
+      </c>
+      <c r="B586" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>994</v>
+      </c>
+      <c r="B587" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>996</v>
+      </c>
+      <c r="B588" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>998</v>
+      </c>
+      <c r="B589" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
